--- a/TRNMNT/wwwroot/FileSamples/brackets-4.xlsx
+++ b/TRNMNT/wwwroot/FileSamples/brackets-4.xlsx
@@ -19,10 +19,6 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
@@ -37,7 +33,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -124,32 +121,32 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,115 +455,115 @@
   <dimension ref="B8:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="20.5703125" style="9" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="20.5703125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="30.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="G15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="7"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="G18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="7"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="G20" s="4"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="7"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
+      <c r="B27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
